--- a/biology/Zoologie/Anthus/Anthus.xlsx
+++ b/biology/Zoologie/Anthus/Anthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthus est un genre de passereaux de la famille des Motacillidae. Ces oiseaux sont communément appelés pipits.
 Attention, le nom normalisé pipit décrit aussi deux espèces, le Pipit doré (Tmetothylacus tenellus) et le Pipit à gorge jaune (Hemimacronyx chloris), qui ne font pas partie de ce genre.
@@ -512,7 +524,9 @@
           <t>Écologie et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pipits du genre Anthus sont des oiseaux territoriaux qui passent la plus grande partie de leur temps à terre. Il ne volent qu'en cas de danger, pour migrer et pour la parade nuptiale. Le nid est également construit à terre. Ils se nourrissent essentiellement d'invertébrés.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anthus est présent sur tous les continents, à l'exception de l'Antarctique. Ces oiseaux vivent dans une grande variété d'habitats mais sont absents des déserts et des forêts tropicales humides. Ils préfèrent les milieux ouverts.
 </t>
@@ -574,11 +590,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'une étude de Davies et Peacock (2014), deux espèces décrites récemment sont supprimées par le Congrès ornithologique international (classification version 4.3, 2014). Le  Pipit à longue queue (Anthus longicaudatus) et le Pipit de Kimberley (Anthus pseudosimilis) sont fusionnées respectivement dans le Pipit du Vaal (Anthus vaalensis) et le Pipit africain (Anthus cinnamomeus). Il semble que ces « espèces » n'étaient que des populations migrantes des espèces susmentionnées.
-Liste d'espèces
-D'après la classification de référence (version 11.2, 2021) du Congrès ornithologique international (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 11.2, 2021) du Congrès ornithologique international (ordre phylogénique) :
 Anthus richardi Vieillot, 1818 – Pipit de Richard
 Anthus rufulus Vieillot, 1818 – Pipit rousset
 Anthus australis Vieillot, 1818 – Pipit austral
@@ -629,33 +682,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anthus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anthus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anthus Bechstein, 1805[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anthus Bechstein, 1805.
 </t>
         </is>
       </c>
